--- a/biology/Zoologie/Bubale_d'Afrique_du_Nord/Bubale_d'Afrique_du_Nord.xlsx
+++ b/biology/Zoologie/Bubale_d'Afrique_du_Nord/Bubale_d'Afrique_du_Nord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bubale_d%27Afrique_du_Nord</t>
+          <t>Bubale_d'Afrique_du_Nord</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alcelaphus buselaphus buselaphus
 Le Bubale d'Afrique du Nord (Alcephalus buselaphus buselaphus) est une sous-espèce éteinte de bubales, qui évoluait en Afrique du Nord et au Proche-Orient. Pour certaines auteurs, il s'agissait d'une espèce à part entière (Alcelaphus buselaphus).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bubale_d%27Afrique_du_Nord</t>
+          <t>Bubale_d'Afrique_du_Nord</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vivait dans les montagnes arides de l'Égypte, du Maroc, de la Tunisie, de l'Algérie, et de la Libye.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bubale_d%27Afrique_du_Nord</t>
+          <t>Bubale_d'Afrique_du_Nord</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se nourrissait de buissons épineux qui poussaient dans les montagnes.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bubale_d%27Afrique_du_Nord</t>
+          <t>Bubale_d'Afrique_du_Nord</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Extinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La chasse est la principale cause de sa disparition. Cette espèce a disparu en 1923 mais a été officiellement reconnue comme éteinte en 2008.
  Portail des mammifères                     </t>
